--- a/inst/Certara_R_School/Lesson_2/TADexplained.xlsx
+++ b/inst/Certara_R_School/Lesson_2/TADexplained.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHubProjects\R-Certara\inst\Certara_R_School\Lesson_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A09179-032A-4FFC-81AF-1F5ED3AF2421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659CBB4D-C8FF-4023-9967-30C432EA7418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1170" windowWidth="26100" windowHeight="13365" xr2:uid="{AE62D9D1-193A-4D56-840F-843AC9DFF63D}"/>
   </bookViews>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Original</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Diff</t>
-  </si>
-  <si>
-    <t>as_logical</t>
   </si>
   <si>
     <t>c(FALSE,..</t>
@@ -57,27 +51,53 @@
     <t>OriginalTime</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>c(0,…</t>
-  </si>
-  <si>
-    <t>multiply</t>
   </si>
   <si>
     <t>cumsum = index</t>
   </si>
   <si>
-    <t>TAD (cumsum grouped by index)</t>
+    <t>DiffAMT</t>
+  </si>
+  <si>
+    <t>as_logicalDiffAMT</t>
+  </si>
+  <si>
+    <t>diffTime</t>
+  </si>
+  <si>
+    <t>multiply (colM*colJ)</t>
+  </si>
+  <si>
+    <t>Note, R treats logical T/F as 1/0 in math functions</t>
+  </si>
+  <si>
+    <t>TAD (cumsum col N, grouped by index col E)</t>
+  </si>
+  <si>
+    <t>Shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff concept - shift a column by one cell and then compare side to side (which is analogous to comparing row to row above in single column) </t>
+  </si>
+  <si>
+    <t>this is ignored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,56 +442,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7745549-1AC8-48A6-AEF5-C85247150899}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1446,7 +1474,318 @@
         <v>24.05</v>
       </c>
     </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <f>A32-B32</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C54" si="2">A33-B33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>